--- a/ByPlatform/DocumentHelper/111.xlsx
+++ b/ByPlatform/DocumentHelper/111.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\National\ERPShare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Service\HsPlatform\ByPlatform\DocumentHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3427" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3427" uniqueCount="1066">
   <si>
     <t>请购</t>
   </si>
@@ -3007,9 +3007,6 @@
   </si>
   <si>
     <t>安徽衡孚电子科技有限公司</t>
-  </si>
-  <si>
-    <t>0110020086</t>
   </si>
   <si>
     <t>毛巾（白色）</t>
@@ -3231,6 +3228,18 @@
   </si>
   <si>
     <t>OrderCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108010014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0113010001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110020086</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3681,12 +3690,13 @@
   </sheetPr>
   <dimension ref="A1:P272"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="H283" sqref="H283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="4" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.5" bestFit="1" customWidth="1"/>
@@ -3699,52 +3709,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B1" t="s">
         <v>1048</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1049</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1050</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1051</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1052</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H1" t="s">
         <v>1053</v>
       </c>
-      <c r="G1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>1054</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1055</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1056</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1057</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>1058</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1059</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>1060</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1061</v>
-      </c>
-      <c r="P1" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -3775,10 +3785,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -3955,7 +3965,7 @@
         <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>36</v>
@@ -3984,7 +3994,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>40</v>
@@ -5537,7 +5547,7 @@
         <v>34</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>24</v>
@@ -8159,7 +8169,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>452</v>
+        <v>1063</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>453</v>
@@ -14931,17 +14941,17 @@
         <v>821</v>
       </c>
       <c r="C259" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="E259" s="1"/>
       <c r="F259" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>56</v>
@@ -14950,7 +14960,7 @@
         <v>57</v>
       </c>
       <c r="J259" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
@@ -14967,19 +14977,19 @@
         <v>821</v>
       </c>
       <c r="C260" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="D260" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>884</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>56</v>
@@ -14991,7 +15001,7 @@
         <v>884</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L260" s="1" t="s">
         <v>191</v>
@@ -15000,7 +15010,7 @@
         <v>884</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>191</v>
@@ -15017,10 +15027,10 @@
         <v>821</v>
       </c>
       <c r="C261" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>1007</v>
       </c>
       <c r="E261" s="1"/>
       <c r="F261" s="2" t="s">
@@ -15053,13 +15063,13 @@
         <v>821</v>
       </c>
       <c r="C262" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D262" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>1010</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>54</v>
@@ -15091,13 +15101,13 @@
         <v>821</v>
       </c>
       <c r="C263" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D263" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>1013</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>54</v>
@@ -15123,13 +15133,13 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>495</v>
+        <v>1064</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>496</v>
@@ -15141,7 +15151,7 @@
         <v>20</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>191</v>
@@ -15161,19 +15171,19 @@
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C265" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>54</v>
@@ -15191,25 +15201,25 @@
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C266" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="E266" s="1" t="s">
+      <c r="F266" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G266" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>191</v>
@@ -15229,19 +15239,19 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C267" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>150</v>
@@ -15259,25 +15269,25 @@
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C268" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="E268" s="1" t="s">
+      <c r="F268" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="F268" s="2" t="s">
+      <c r="G268" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="G268" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>191</v>
@@ -15286,7 +15296,7 @@
         <v>23</v>
       </c>
       <c r="J268" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K268" s="1"/>
       <c r="L268" s="1"/>
@@ -15297,7 +15307,7 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>191</v>
@@ -15315,7 +15325,7 @@
         <v>24</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>191</v>
@@ -15335,7 +15345,7 @@
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>191</v>
@@ -15353,7 +15363,7 @@
         <v>24</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>191</v>
@@ -15373,25 +15383,25 @@
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C271" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>191</v>
@@ -15411,25 +15421,25 @@
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C272" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>1041</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>191</v>
